--- a/data/trans_orig/P15A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15A-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>9294</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4750</v>
+        <v>4674</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15629</v>
+        <v>16467</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03404114979074555</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01739858820495305</v>
+        <v>0.01712063425218061</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05724684803690733</v>
+        <v>0.06031749811804032</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -765,19 +765,19 @@
         <v>7088</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2958</v>
+        <v>2759</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15199</v>
+        <v>15457</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02717252081501789</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01134091003735376</v>
+        <v>0.01057767309266078</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05827004691759866</v>
+        <v>0.05925784690389583</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -786,19 +786,19 @@
         <v>16381</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9197</v>
+        <v>9609</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26631</v>
+        <v>25617</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03068513840470898</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0172283417507317</v>
+        <v>0.01799880708251545</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04988416895348957</v>
+        <v>0.04798484932733615</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>263716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>257381</v>
+        <v>256543</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>268260</v>
+        <v>268336</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9659588502092544</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9427531519630926</v>
+        <v>0.9396825018819598</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9826014117950469</v>
+        <v>0.9828793657478194</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>239</v>
@@ -836,19 +836,19 @@
         <v>253750</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>245639</v>
+        <v>245381</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>257880</v>
+        <v>258079</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9728274791849821</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9417299530824011</v>
+        <v>0.9407421530961043</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9886590899626462</v>
+        <v>0.9894223269073393</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>500</v>
@@ -857,19 +857,19 @@
         <v>517467</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>507217</v>
+        <v>508231</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>524651</v>
+        <v>524239</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.969314861595291</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9501158310465103</v>
+        <v>0.9520151506726638</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.982771658249268</v>
+        <v>0.9820011929174846</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>7852</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3082</v>
+        <v>3038</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15645</v>
+        <v>16278</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01592432666631562</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006249627445746137</v>
+        <v>0.006162037733616075</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03172875433152889</v>
+        <v>0.03301380247947428</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -982,19 +982,19 @@
         <v>8964</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4242</v>
+        <v>3981</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16707</v>
+        <v>16219</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01778656472901073</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008417298137968897</v>
+        <v>0.007900062733668514</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03315208703857101</v>
+        <v>0.03218338467687826</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -1003,19 +1003,19 @@
         <v>16815</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9735</v>
+        <v>9647</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26291</v>
+        <v>26007</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01686560085982739</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00976388079377692</v>
+        <v>0.009675974181271396</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02636972402643466</v>
+        <v>0.02608431433388978</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>485223</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>477430</v>
+        <v>476797</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>489993</v>
+        <v>490037</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9840756733336844</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9682712456684711</v>
+        <v>0.9669861975205257</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9937503725542539</v>
+        <v>0.993837962266384</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>490</v>
@@ -1053,19 +1053,19 @@
         <v>494985</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>487242</v>
+        <v>487730</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>499707</v>
+        <v>499968</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9822134352709893</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9668479129614289</v>
+        <v>0.9678166153231216</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.991582701862031</v>
+        <v>0.9920999372663314</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>948</v>
@@ -1074,19 +1074,19 @@
         <v>980209</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>970733</v>
+        <v>971017</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>987289</v>
+        <v>987377</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9831343991401726</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9736302759735658</v>
+        <v>0.9739156856661102</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9902361192062231</v>
+        <v>0.9903240258187286</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>18229</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11197</v>
+        <v>11198</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28590</v>
+        <v>31637</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05717209217788299</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03511637230638237</v>
+        <v>0.03512034740613738</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08966583633794489</v>
+        <v>0.0992235645754217</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1199,19 +1199,19 @@
         <v>4205</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1120</v>
+        <v>1132</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10043</v>
+        <v>10853</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01253600005962699</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00333913957834177</v>
+        <v>0.003375866881080164</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02994120427172466</v>
+        <v>0.03235847039853996</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -1220,19 +1220,19 @@
         <v>22434</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14128</v>
+        <v>13999</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34249</v>
+        <v>34114</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03428894363988103</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02159374992731548</v>
+        <v>0.02139669019897675</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05234836736857877</v>
+        <v>0.05214172251058474</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>300617</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>290256</v>
+        <v>287209</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>307649</v>
+        <v>307648</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.942827907822117</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9103341636620543</v>
+        <v>0.900776435424578</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9648836276936175</v>
+        <v>0.9648796525938627</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>331</v>
@@ -1270,19 +1270,19 @@
         <v>331207</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>325369</v>
+        <v>324559</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334292</v>
+        <v>334280</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.987463999940373</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9700587957282778</v>
+        <v>0.9676415296014592</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9966608604216582</v>
+        <v>0.9966241331189198</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>625</v>
@@ -1291,19 +1291,19 @@
         <v>631824</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>620009</v>
+        <v>620144</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>640130</v>
+        <v>640259</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.965711056360119</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9476516326314212</v>
+        <v>0.9478582774894153</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9784062500726844</v>
+        <v>0.9786033098010233</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>17818</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11161</v>
+        <v>10935</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26611</v>
+        <v>27256</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04967724795874566</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03111729382740798</v>
+        <v>0.03048647629337087</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07419212343455511</v>
+        <v>0.07599061898062277</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1416,19 +1416,19 @@
         <v>9793</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4587</v>
+        <v>4707</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16799</v>
+        <v>17158</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02636344454818481</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01234886700090519</v>
+        <v>0.01267091363991552</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04522482411065596</v>
+        <v>0.04619059307523203</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -1437,19 +1437,19 @@
         <v>27611</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18859</v>
+        <v>18819</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39135</v>
+        <v>39046</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03781622866922467</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02583010909057878</v>
+        <v>0.02577440527307244</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05359973480001864</v>
+        <v>0.05347905138494916</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>340853</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>332060</v>
+        <v>331415</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>347510</v>
+        <v>347736</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9503227520412544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9258078765654446</v>
+        <v>0.9240093810193772</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.968882706172592</v>
+        <v>0.9695135237066286</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>374</v>
@@ -1487,19 +1487,19 @@
         <v>361663</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>354657</v>
+        <v>354298</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>366869</v>
+        <v>366749</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9736365554518152</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9547751758893441</v>
+        <v>0.9538094069247679</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9876511329990948</v>
+        <v>0.9873290863600847</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>716</v>
@@ -1508,19 +1508,19 @@
         <v>702516</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>690992</v>
+        <v>691081</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>711268</v>
+        <v>711308</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9621837713307754</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9464002651999815</v>
+        <v>0.9465209486150509</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9741698909094214</v>
+        <v>0.9742255947269276</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>7319</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3299</v>
+        <v>3017</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14141</v>
+        <v>13545</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03599900102807482</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0162281032504784</v>
+        <v>0.01484073729812434</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06955474835857325</v>
+        <v>0.06662303720591356</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1633,19 +1633,19 @@
         <v>7806</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3150</v>
+        <v>3225</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15414</v>
+        <v>15019</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03759079279898596</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01517013895650647</v>
+        <v>0.01552753630641684</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07422315375438643</v>
+        <v>0.07232154720956485</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1654,19 +1654,19 @@
         <v>15125</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8807</v>
+        <v>8697</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25578</v>
+        <v>24908</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0368033403970008</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02142951454982783</v>
+        <v>0.02116153903798567</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06223828105014673</v>
+        <v>0.06060785419950917</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>195989</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>189167</v>
+        <v>189763</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>200009</v>
+        <v>200291</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9640009989719251</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9304452516414269</v>
+        <v>0.933376962794086</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9837718967495216</v>
+        <v>0.9851592627018757</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>191</v>
@@ -1704,19 +1704,19 @@
         <v>199862</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>192254</v>
+        <v>192649</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>204518</v>
+        <v>204443</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9624092072010141</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9257768462456137</v>
+        <v>0.9276784527904351</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9848298610434935</v>
+        <v>0.9844724636935832</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>390</v>
@@ -1725,19 +1725,19 @@
         <v>395851</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>385398</v>
+        <v>386068</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>402169</v>
+        <v>402279</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9631966596029992</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9377617189498533</v>
+        <v>0.9393921458004915</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9785704854501724</v>
+        <v>0.9788384609620144</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>8893</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3712</v>
+        <v>3880</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16432</v>
+        <v>17145</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03283731701488542</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01370601147908412</v>
+        <v>0.01432718690811105</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06067524963123232</v>
+        <v>0.06331005522582442</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1850,19 +1850,19 @@
         <v>10602</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5443</v>
+        <v>5232</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19008</v>
+        <v>19413</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0381174448764565</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01956807112803645</v>
+        <v>0.01880959722413424</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06834009327447019</v>
+        <v>0.06979361956193476</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -1871,19 +1871,19 @@
         <v>19495</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11286</v>
+        <v>12356</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29207</v>
+        <v>29069</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03551264718445148</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02055866834664324</v>
+        <v>0.02250826719704295</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05320499915400636</v>
+        <v>0.05295405357660212</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>261918</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254379</v>
+        <v>253666</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>267099</v>
+        <v>266931</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9671626829851145</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9393247503687679</v>
+        <v>0.936689944774176</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9862939885209161</v>
+        <v>0.9856728130918889</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>260</v>
@@ -1921,19 +1921,19 @@
         <v>267542</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>259136</v>
+        <v>258731</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272701</v>
+        <v>272912</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9618825551235435</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9316599067255295</v>
+        <v>0.9302063804380653</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9804319288719635</v>
+        <v>0.9811904027758657</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>518</v>
@@ -1942,19 +1942,19 @@
         <v>529460</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>519748</v>
+        <v>519886</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>537669</v>
+        <v>536599</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9644873528155485</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9467950008459934</v>
+        <v>0.9470459464233979</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9794413316533568</v>
+        <v>0.977491732802957</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>27284</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17814</v>
+        <v>17923</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40563</v>
+        <v>39404</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04436245652743276</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02896453145997354</v>
+        <v>0.02914232774099943</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06595388099452061</v>
+        <v>0.06406907598402625</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -2067,19 +2067,19 @@
         <v>18415</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11314</v>
+        <v>10696</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28333</v>
+        <v>28054</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02885449985533537</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01772710172928683</v>
+        <v>0.01675988795770291</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04439416022347781</v>
+        <v>0.04395617496964326</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>44</v>
@@ -2088,19 +2088,19 @@
         <v>45700</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32962</v>
+        <v>31933</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>59823</v>
+        <v>59422</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.036464986389575</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0263016347778833</v>
+        <v>0.02548027037385701</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04773468423162384</v>
+        <v>0.04741450889010024</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>587743</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>574464</v>
+        <v>575623</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>597213</v>
+        <v>597104</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9556375434725672</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9340461190054794</v>
+        <v>0.9359309240159733</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9710354685400263</v>
+        <v>0.9708576722590005</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>603</v>
@@ -2138,19 +2138,19 @@
         <v>619804</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>609886</v>
+        <v>610165</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>626905</v>
+        <v>627523</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9711455001446646</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9556058397765221</v>
+        <v>0.9560438250303565</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9822728982707131</v>
+        <v>0.983240112042297</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1175</v>
@@ -2159,19 +2159,19 @@
         <v>1207546</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1193423</v>
+        <v>1193824</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1220284</v>
+        <v>1221313</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.963535013610425</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9522653157683756</v>
+        <v>0.9525854911098998</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9736983652221165</v>
+        <v>0.9745197296261431</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>26389</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16003</v>
+        <v>17105</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37571</v>
+        <v>38444</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03547851322310705</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02151521178075403</v>
+        <v>0.02299632621318161</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05051224668063817</v>
+        <v>0.05168685869741716</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -2284,19 +2284,19 @@
         <v>26933</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17987</v>
+        <v>18490</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38579</v>
+        <v>39009</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03437477101548131</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02295706489533379</v>
+        <v>0.02359900608276465</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04923923620859489</v>
+        <v>0.04978763300916261</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>51</v>
@@ -2305,19 +2305,19 @@
         <v>53322</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>41235</v>
+        <v>39374</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>69011</v>
+        <v>69569</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03491229130219641</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02699825447314511</v>
+        <v>0.0257800084507414</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04518508136916511</v>
+        <v>0.04554984116112266</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>717406</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>706224</v>
+        <v>705351</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>727792</v>
+        <v>726690</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.964521486776893</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9494877533193616</v>
+        <v>0.9483131413025827</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9784847882192459</v>
+        <v>0.9770036737868183</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>719</v>
@@ -2355,19 +2355,19 @@
         <v>756578</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>744932</v>
+        <v>744502</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>765524</v>
+        <v>765021</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9656252289845187</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9507607637914052</v>
+        <v>0.9502123669908373</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9770429351046662</v>
+        <v>0.9764009939172351</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1430</v>
@@ -2376,19 +2376,19 @@
         <v>1473984</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1458295</v>
+        <v>1457737</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1486071</v>
+        <v>1487932</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9650877086978036</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9548149186308348</v>
+        <v>0.9544501588388773</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9730017455268548</v>
+        <v>0.9742199915492588</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>123077</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>102176</v>
+        <v>103904</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>148039</v>
+        <v>149050</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03756299990216581</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03118408752751014</v>
+        <v>0.03171136369708693</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04518144908536175</v>
+        <v>0.04548993550447905</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>90</v>
@@ -2501,19 +2501,19 @@
         <v>93806</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>74263</v>
+        <v>76541</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>113321</v>
+        <v>116262</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02775978291489749</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02197660683752431</v>
+        <v>0.02265076232825085</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03353484582512958</v>
+        <v>0.03440526181672535</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>209</v>
@@ -2522,19 +2522,19 @@
         <v>216883</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>189300</v>
+        <v>188045</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>250854</v>
+        <v>248478</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03258579206000368</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02844166590762844</v>
+        <v>0.02825312315176922</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03768988355623194</v>
+        <v>0.03733294285164939</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3153466</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3128504</v>
+        <v>3127493</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3174367</v>
+        <v>3172639</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9624370000978342</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9548185509146384</v>
+        <v>0.954510064495521</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9688159124724904</v>
+        <v>0.9682886363029128</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3207</v>
@@ -2572,19 +2572,19 @@
         <v>3285391</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3265876</v>
+        <v>3262935</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3304934</v>
+        <v>3302656</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9722402170851026</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9664651541748703</v>
+        <v>0.9655947381832752</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9780233931624757</v>
+        <v>0.9773492376717494</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6302</v>
@@ -2593,19 +2593,19 @@
         <v>6438858</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6404887</v>
+        <v>6407263</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6466441</v>
+        <v>6467696</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9674142079399963</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9623101164437681</v>
+        <v>0.9626670571483505</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9715583340923715</v>
+        <v>0.9717468768482306</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>12181</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6747</v>
+        <v>6596</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20543</v>
+        <v>19402</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04132806724598525</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02289058351853047</v>
+        <v>0.02237898106612178</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06969786619949055</v>
+        <v>0.06582686926989852</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2962,19 +2962,19 @@
         <v>7036</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2944</v>
+        <v>2485</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14501</v>
+        <v>13910</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02449581728439613</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0102500917162679</v>
+        <v>0.008651009131029702</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05048313487482503</v>
+        <v>0.04842578080946539</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -2983,19 +2983,19 @@
         <v>19217</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11241</v>
+        <v>11940</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29080</v>
+        <v>29028</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03302029985914027</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01931490239905196</v>
+        <v>0.02051677375822288</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04996650944832049</v>
+        <v>0.04987711537454451</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>282557</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>274195</v>
+        <v>275336</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>287991</v>
+        <v>288142</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9586719327540147</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9303021338005086</v>
+        <v>0.9341731307301009</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9771094164814695</v>
+        <v>0.9776210189338781</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>250</v>
@@ -3033,19 +3033,19 @@
         <v>280209</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>272744</v>
+        <v>273335</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>284301</v>
+        <v>284760</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9755041827156039</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.949516865125175</v>
+        <v>0.9515742191905345</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9897499082837321</v>
+        <v>0.9913489908689698</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>519</v>
@@ -3054,19 +3054,19 @@
         <v>562766</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>552903</v>
+        <v>552955</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>570742</v>
+        <v>570043</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9669797001408598</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9500334905516793</v>
+        <v>0.9501228846254554</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.980685097600948</v>
+        <v>0.9794832262417772</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>10875</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5013</v>
+        <v>4949</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19433</v>
+        <v>19837</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02151311132335543</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009917066912786524</v>
+        <v>0.009789731071284115</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0384402163138526</v>
+        <v>0.03923966549281952</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -3179,19 +3179,19 @@
         <v>7349</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3157</v>
+        <v>3086</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14641</v>
+        <v>14515</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01403162917202044</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006027987035758606</v>
+        <v>0.005892893545233678</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02795373644716332</v>
+        <v>0.02771294960192019</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -3200,19 +3200,19 @@
         <v>18225</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11073</v>
+        <v>11069</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28562</v>
+        <v>28958</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01770608908198192</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01075803518101589</v>
+        <v>0.01075400055032229</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02774870771890748</v>
+        <v>0.02813424446738669</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>494652</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>486094</v>
+        <v>485690</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>500514</v>
+        <v>500578</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9784868886766446</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9615597836861474</v>
+        <v>0.9607603345071805</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9900829330872135</v>
+        <v>0.9902102689287159</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>473</v>
@@ -3250,19 +3250,19 @@
         <v>516416</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>509124</v>
+        <v>509250</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>520608</v>
+        <v>520679</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9859683708279796</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9720462635528369</v>
+        <v>0.9722870503980797</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9939720129642414</v>
+        <v>0.9941071064547663</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>935</v>
@@ -3271,19 +3271,19 @@
         <v>1011067</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1000730</v>
+        <v>1000334</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1018219</v>
+        <v>1018223</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9822939109180181</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9722512922810925</v>
+        <v>0.9718657555326132</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9892419648189841</v>
+        <v>0.9892459994496777</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>15302</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8853</v>
+        <v>9449</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23363</v>
+        <v>23825</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04722033413725518</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02731984768483632</v>
+        <v>0.02915936364666241</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07209930333857678</v>
+        <v>0.07352335450460751</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -3396,19 +3396,19 @@
         <v>16928</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9981</v>
+        <v>9253</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27802</v>
+        <v>26776</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04963889429765043</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02926923193314483</v>
+        <v>0.02713315710998532</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08152513194627603</v>
+        <v>0.07851875724014526</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -3417,19 +3417,19 @@
         <v>32229</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22580</v>
+        <v>23077</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45495</v>
+        <v>44029</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04846047781404587</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03395221328637094</v>
+        <v>0.03469915217883197</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0684071180607739</v>
+        <v>0.06620210766173025</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>308744</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>300683</v>
+        <v>300221</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>315193</v>
+        <v>314597</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9527796658627449</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9279006966614233</v>
+        <v>0.9264766454953925</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9726801523151637</v>
+        <v>0.9708406363533376</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>302</v>
@@ -3467,19 +3467,19 @@
         <v>324092</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>313218</v>
+        <v>314244</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>331039</v>
+        <v>331767</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9503611057023496</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9184748680537241</v>
+        <v>0.9214812427598555</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9707307680668553</v>
+        <v>0.9728668428900151</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>605</v>
@@ -3488,19 +3488,19 @@
         <v>632837</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>619571</v>
+        <v>621037</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>642486</v>
+        <v>641989</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9515395221859542</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9315928819392261</v>
+        <v>0.9337978923382698</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.966047786713629</v>
+        <v>0.9653008478211681</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>14137</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7655</v>
+        <v>7043</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25057</v>
+        <v>24369</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03780158682648147</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02046891424152206</v>
+        <v>0.01883129860324737</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06700016905069903</v>
+        <v>0.06516149039149606</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -3613,19 +3613,19 @@
         <v>7090</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3047</v>
+        <v>3020</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14173</v>
+        <v>14132</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01822732646743612</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007834779340330528</v>
+        <v>0.007764109811081473</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03643919863195251</v>
+        <v>0.03633281860723114</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -3634,19 +3634,19 @@
         <v>21227</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13174</v>
+        <v>13554</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33316</v>
+        <v>33551</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02782243144247625</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0172679741786002</v>
+        <v>0.01776611494856697</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04366850420781503</v>
+        <v>0.04397641746608014</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>359845</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>348925</v>
+        <v>349613</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>366327</v>
+        <v>366939</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9621984131735185</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9329998309493011</v>
+        <v>0.934838509608504</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.979531085758478</v>
+        <v>0.9811687013967526</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>364</v>
@@ -3684,19 +3684,19 @@
         <v>381861</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>374778</v>
+        <v>374819</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>385904</v>
+        <v>385931</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9817726735325639</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9635608013680473</v>
+        <v>0.9636671813927689</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9921652206596694</v>
+        <v>0.9922358901889184</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>696</v>
@@ -3705,19 +3705,19 @@
         <v>741706</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>729617</v>
+        <v>729382</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>749759</v>
+        <v>749379</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9721775685575238</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9563314957921849</v>
+        <v>0.9560235825339198</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9827320258213996</v>
+        <v>0.9822338850514331</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>7141</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3113</v>
+        <v>3062</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14331</v>
+        <v>13822</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0335848811803573</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01464358792830038</v>
+        <v>0.01440102467970759</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06740326355275968</v>
+        <v>0.06500874270111137</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -3830,19 +3830,19 @@
         <v>9252</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4266</v>
+        <v>4476</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16651</v>
+        <v>16666</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04213261053598868</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01942497475578992</v>
+        <v>0.02038294181322091</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07582934052598819</v>
+        <v>0.07589751211285269</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -3851,19 +3851,19 @@
         <v>16393</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9580</v>
+        <v>9479</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26721</v>
+        <v>26243</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03792769742429087</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02216565727456618</v>
+        <v>0.02193065505136311</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06182365958535756</v>
+        <v>0.06071917375603247</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>205477</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198287</v>
+        <v>198796</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209505</v>
+        <v>209556</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9664151188196427</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9325967364472405</v>
+        <v>0.9349912572988885</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9853564120716997</v>
+        <v>0.9855989753202924</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>203</v>
@@ -3901,19 +3901,19 @@
         <v>210339</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>202940</v>
+        <v>202925</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>215325</v>
+        <v>215115</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9578673894640113</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9241706594740119</v>
+        <v>0.9241024878871476</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.98057502524421</v>
+        <v>0.9796170581867794</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>392</v>
@@ -3922,19 +3922,19 @@
         <v>415816</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>405488</v>
+        <v>405966</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>422629</v>
+        <v>422730</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9620723025757091</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9381763404146424</v>
+        <v>0.9392808262439675</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9778343427254338</v>
+        <v>0.978069344948637</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>6842</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2841</v>
+        <v>2789</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16996</v>
+        <v>14746</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02497431709314836</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01037076247579665</v>
+        <v>0.0101787515807831</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06203456975327692</v>
+        <v>0.05382288762391108</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -4047,19 +4047,19 @@
         <v>17187</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9878</v>
+        <v>10725</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27274</v>
+        <v>27080</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06137419009628759</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03527463859142498</v>
+        <v>0.03830071914222117</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09739769572644792</v>
+        <v>0.09670353274558893</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -4068,19 +4068,19 @@
         <v>24029</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14897</v>
+        <v>15528</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>35557</v>
+        <v>34633</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04337300292817569</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02688857707640779</v>
+        <v>0.02802916792079859</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06418087703150258</v>
+        <v>0.06251331399911104</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>267139</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>256985</v>
+        <v>259235</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>271140</v>
+        <v>271192</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9750256829068517</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9379654302467231</v>
+        <v>0.9461771123760889</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9896292375242033</v>
+        <v>0.9898212484192169</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>253</v>
@@ -4118,19 +4118,19 @@
         <v>262844</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>252757</v>
+        <v>252951</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>270153</v>
+        <v>269306</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9386258099037124</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9026023042735521</v>
+        <v>0.9032964672544108</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9647253614085751</v>
+        <v>0.9616992808577788</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>508</v>
@@ -4139,19 +4139,19 @@
         <v>529983</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>518455</v>
+        <v>519379</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>539115</v>
+        <v>538484</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9566269970718243</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9358191229684973</v>
+        <v>0.9374866860008885</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9731114229235921</v>
+        <v>0.9719708320792013</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>22783</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14737</v>
+        <v>14169</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34212</v>
+        <v>33297</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03437389036556747</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02223527720125512</v>
+        <v>0.02137775732736814</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05161839391221545</v>
+        <v>0.05023751097334093</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -4264,19 +4264,19 @@
         <v>19203</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12104</v>
+        <v>11689</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29051</v>
+        <v>29466</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02767553235272152</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01744426340750318</v>
+        <v>0.01684675741969312</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04186972849142141</v>
+        <v>0.04246791668179505</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -4285,19 +4285,19 @@
         <v>41985</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31335</v>
+        <v>30178</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56350</v>
+        <v>57525</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03094802046187624</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02309755728259642</v>
+        <v>0.02224489689174086</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04153658921739643</v>
+        <v>0.04240270577748383</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>640005</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>628576</v>
+        <v>629491</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>648051</v>
+        <v>648619</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9656261096344325</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.948381606087784</v>
+        <v>0.9497624890266588</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9777647227987448</v>
+        <v>0.9786222426726319</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>618</v>
@@ -4335,19 +4335,19 @@
         <v>674650</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>664802</v>
+        <v>664387</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>681749</v>
+        <v>682164</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9723244676472784</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9581302715085783</v>
+        <v>0.9575320833182054</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9825557365924967</v>
+        <v>0.9831532425803069</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1214</v>
@@ -4356,19 +4356,19 @@
         <v>1314656</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1300291</v>
+        <v>1299116</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1325306</v>
+        <v>1326463</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9690519795381237</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9584634107826036</v>
+        <v>0.9575972942225163</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9769024427174038</v>
+        <v>0.9777551031082593</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>9054</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18221</v>
+        <v>17318</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01162108376741249</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005243225220211446</v>
+        <v>0.00524258882511057</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0233867957703428</v>
+        <v>0.02222797928769681</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -4481,19 +4481,19 @@
         <v>14287</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7663</v>
+        <v>8029</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24695</v>
+        <v>25574</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01734153024269543</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.009301573221241942</v>
+        <v>0.009745498401663126</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02997557568870755</v>
+        <v>0.03104203772681364</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -4502,19 +4502,19 @@
         <v>23341</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14440</v>
+        <v>14495</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34437</v>
+        <v>35179</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01456116503089405</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009008358915189099</v>
+        <v>0.0090424677085748</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02148354788155211</v>
+        <v>0.02194612246773133</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>770044</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>760877</v>
+        <v>761780</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>775013</v>
+        <v>775014</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9883789162325876</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9766132042296573</v>
+        <v>0.9777720207123025</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9947567747797885</v>
+        <v>0.9947574111748891</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>745</v>
@@ -4552,19 +4552,19 @@
         <v>809566</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>799158</v>
+        <v>798279</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>816190</v>
+        <v>815824</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9826584697573045</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9700244243112927</v>
+        <v>0.9689579622731865</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9906984267787582</v>
+        <v>0.9902545015983371</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1454</v>
@@ -4573,19 +4573,19 @@
         <v>1579610</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1568514</v>
+        <v>1567772</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1588511</v>
+        <v>1588456</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.985438834969106</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9785164521184478</v>
+        <v>0.9780538775322686</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9909916410848109</v>
+        <v>0.9909575322914252</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>98315</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>80044</v>
+        <v>80981</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>119167</v>
+        <v>119567</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02869018174232161</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02335823928493855</v>
+        <v>0.02363167627978024</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03477514812714298</v>
+        <v>0.03489191567410645</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>90</v>
@@ -4698,19 +4698,19 @@
         <v>98331</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>78569</v>
+        <v>80887</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>121335</v>
+        <v>119277</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02763425294399035</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02208047845969621</v>
+        <v>0.02273191741739945</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03409911924034233</v>
+        <v>0.03352070841958723</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>184</v>
@@ -4719,19 +4719,19 @@
         <v>196646</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>169182</v>
+        <v>169540</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>225028</v>
+        <v>226013</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0281522756962545</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02422050038214886</v>
+        <v>0.02427170256393837</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03221545839491034</v>
+        <v>0.0323564847975647</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3328464</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3307612</v>
+        <v>3307212</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3346735</v>
+        <v>3345798</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9713098182576784</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.965224851872857</v>
+        <v>0.9651080843258937</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9766417607150616</v>
+        <v>0.9763683237202199</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3208</v>
@@ -4769,19 +4769,19 @@
         <v>3459978</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3436974</v>
+        <v>3439032</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3479740</v>
+        <v>3477422</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9723657470560096</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9659008807596577</v>
+        <v>0.966479291580413</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9779195215403038</v>
+        <v>0.9772680825826006</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6323</v>
@@ -4790,19 +4790,19 @@
         <v>6788442</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6760060</v>
+        <v>6759075</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6815906</v>
+        <v>6815548</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9718477243037454</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9677845416050893</v>
+        <v>0.9676435152024353</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9757794996178509</v>
+        <v>0.9757282974360615</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>6146</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2634</v>
+        <v>2133</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14125</v>
+        <v>12286</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02092339693461945</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008964823993947242</v>
+        <v>0.007261639299605205</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04808228770043516</v>
+        <v>0.04182359391566012</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -5159,19 +5159,19 @@
         <v>9108</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4354</v>
+        <v>4337</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16876</v>
+        <v>17628</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03154706793589562</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.015082517148679</v>
+        <v>0.01502095100517744</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0584546686606418</v>
+        <v>0.06105879127466986</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -5180,19 +5180,19 @@
         <v>15254</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8121</v>
+        <v>7934</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24468</v>
+        <v>24815</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02618910551736301</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01394332175825779</v>
+        <v>0.01362199675407002</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04200749426784099</v>
+        <v>0.04260420216594628</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>287615</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>279636</v>
+        <v>281475</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>291127</v>
+        <v>291628</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9790766030653806</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9519177122995648</v>
+        <v>0.9581764060843398</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9910351760060527</v>
+        <v>0.9927383607003947</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>269</v>
@@ -5230,19 +5230,19 @@
         <v>279595</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>271827</v>
+        <v>271075</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>284349</v>
+        <v>284366</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9684529320641043</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9415453313393584</v>
+        <v>0.9389412087253303</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9849174828513211</v>
+        <v>0.9849790489948226</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>529</v>
@@ -5251,19 +5251,19 @@
         <v>567210</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>557996</v>
+        <v>557649</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>574343</v>
+        <v>574530</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.973810894482637</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9579925057321603</v>
+        <v>0.9573957978340537</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9860566782417424</v>
+        <v>0.9863780032459299</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>6222</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2127</v>
+        <v>2099</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13503</v>
+        <v>12669</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01237934117543084</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004232558503164708</v>
+        <v>0.004176636838522528</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02686824346345354</v>
+        <v>0.02520807072241649</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -5376,19 +5376,19 @@
         <v>4350</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1079</v>
+        <v>1264</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10491</v>
+        <v>10661</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008316322663668897</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002062334419219499</v>
+        <v>0.002417066201855182</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0200556635579605</v>
+        <v>0.02038189096216062</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -5397,19 +5397,19 @@
         <v>10572</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5214</v>
+        <v>5989</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18969</v>
+        <v>19268</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0103072107441197</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005083620212344131</v>
+        <v>0.005839355973696406</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0184945210182855</v>
+        <v>0.01878632281235049</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>496353</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>489072</v>
+        <v>489906</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>500448</v>
+        <v>500476</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9876206588245692</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9731317565365465</v>
+        <v>0.9747919292775818</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9957674414968352</v>
+        <v>0.9958233631614775</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>480</v>
@@ -5447,19 +5447,19 @@
         <v>518734</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>512593</v>
+        <v>512423</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>522005</v>
+        <v>521820</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9916836773363311</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9799443364420394</v>
+        <v>0.9796181090378394</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9979376655807805</v>
+        <v>0.9975829337981449</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>949</v>
@@ -5468,19 +5468,19 @@
         <v>1015087</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1006690</v>
+        <v>1006391</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1020445</v>
+        <v>1019670</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9896927892558803</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9815054789817147</v>
+        <v>0.9812136771876497</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9949163797876559</v>
+        <v>0.9941606440263036</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>12544</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6573</v>
+        <v>7324</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21225</v>
+        <v>20772</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03937670776286188</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02063209341710747</v>
+        <v>0.02299178225660192</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06662760389873222</v>
+        <v>0.06520597414406261</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -5593,19 +5593,19 @@
         <v>5851</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1913</v>
+        <v>2095</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11878</v>
+        <v>11800</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01739829529759465</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005687495069875598</v>
+        <v>0.006229169154622002</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03531948203849562</v>
+        <v>0.03508696937432377</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -5614,19 +5614,19 @@
         <v>18395</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11077</v>
+        <v>11229</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27359</v>
+        <v>26598</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02808974574240497</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01691414839557417</v>
+        <v>0.01714634000615875</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04177815362667625</v>
+        <v>0.04061515654635941</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>306021</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>297340</v>
+        <v>297793</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>311992</v>
+        <v>311241</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9606232922371382</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9333723961012679</v>
+        <v>0.934794025855937</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9793679065828926</v>
+        <v>0.9770082177433981</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>326</v>
@@ -5664,19 +5664,19 @@
         <v>330458</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>324431</v>
+        <v>324509</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334396</v>
+        <v>334214</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9826017047024054</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9646805179615041</v>
+        <v>0.9649130306256762</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9943125049301245</v>
+        <v>0.993770830845378</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>648</v>
@@ -5685,19 +5685,19 @@
         <v>636479</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>627515</v>
+        <v>628276</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>643797</v>
+        <v>643645</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.971910254257595</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9582218463733239</v>
+        <v>0.9593848434536406</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9830858516044259</v>
+        <v>0.9828536599938413</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>16873</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9520</v>
+        <v>10048</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27239</v>
+        <v>26963</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04560735711257791</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0257309207755771</v>
+        <v>0.02715864719212427</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07362551178117581</v>
+        <v>0.07287956104631405</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -5810,19 +5810,19 @@
         <v>19048</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10624</v>
+        <v>11703</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29633</v>
+        <v>29119</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04918398486070052</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02743185734221948</v>
+        <v>0.03021858977980594</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0765139306925139</v>
+        <v>0.07518827414017434</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -5831,19 +5831,19 @@
         <v>35921</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24836</v>
+        <v>25281</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48977</v>
+        <v>51154</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04743657152872689</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03279787377358346</v>
+        <v>0.03338549306345271</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06467812785986306</v>
+        <v>0.06755224924161878</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>353091</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342725</v>
+        <v>343001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>360444</v>
+        <v>359916</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9543926428874221</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9263744882188241</v>
+        <v>0.927120438953686</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9742690792244229</v>
+        <v>0.9728413528078756</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>342</v>
@@ -5881,19 +5881,19 @@
         <v>368235</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>357650</v>
+        <v>358164</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>376659</v>
+        <v>375580</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9508160151392995</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.923486069307486</v>
+        <v>0.9248117258598256</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9725681426577804</v>
+        <v>0.969781410220194</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>681</v>
@@ -5902,19 +5902,19 @@
         <v>721326</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>708270</v>
+        <v>706093</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>732411</v>
+        <v>731966</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9525634284712731</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9353218721401366</v>
+        <v>0.9324477507583813</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9672021262264165</v>
+        <v>0.9666145069365474</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>5611</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2688</v>
+        <v>1941</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12079</v>
+        <v>12043</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02656540096177896</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01272678922563576</v>
+        <v>0.00918974780282026</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0571870769350547</v>
+        <v>0.05701425021026255</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -6027,19 +6027,19 @@
         <v>3346</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1041</v>
+        <v>1051</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8823</v>
+        <v>8622</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01530677062636323</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004762978297562013</v>
+        <v>0.004808952270131796</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04036228223965665</v>
+        <v>0.03944332799283869</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -6048,19 +6048,19 @@
         <v>8957</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4573</v>
+        <v>4204</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16551</v>
+        <v>16538</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02083961121589846</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01064010112219678</v>
+        <v>0.00978093349408999</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03850846664868402</v>
+        <v>0.03847829134688419</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>205610</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>199142</v>
+        <v>199178</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>208533</v>
+        <v>209280</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.973434599038221</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9428129230649452</v>
+        <v>0.9429857497897369</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9872732107743643</v>
+        <v>0.9908102521971798</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>220</v>
@@ -6098,19 +6098,19 @@
         <v>215241</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>209764</v>
+        <v>209965</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217546</v>
+        <v>217536</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9846932293736368</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9596377177603433</v>
+        <v>0.9605566720071612</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.995237021702438</v>
+        <v>0.9951910477298682</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>426</v>
@@ -6119,19 +6119,19 @@
         <v>420851</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>413257</v>
+        <v>413270</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>425235</v>
+        <v>425604</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9791603887841015</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9614915333513161</v>
+        <v>0.961521708653116</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9893598988778033</v>
+        <v>0.99021906650591</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>15427</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9477</v>
+        <v>9478</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24377</v>
+        <v>25058</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05863146755251861</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03601653767426045</v>
+        <v>0.03601968133575976</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09264609432923557</v>
+        <v>0.09523398593416113</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -6244,19 +6244,19 @@
         <v>25371</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16059</v>
+        <v>16536</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35432</v>
+        <v>36606</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09289503532290197</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05879942303899761</v>
+        <v>0.06054758265598875</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.129732471546681</v>
+        <v>0.1340306475367099</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>38</v>
@@ -6265,19 +6265,19 @@
         <v>40798</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30084</v>
+        <v>29354</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>56559</v>
+        <v>54038</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07608247686782729</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.056101355419836</v>
+        <v>0.05474072407958967</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1054738403706553</v>
+        <v>0.1007715712434923</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>247696</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>238746</v>
+        <v>238065</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>253646</v>
+        <v>253645</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9413685324474814</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9073539056707645</v>
+        <v>0.9047660140658389</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9639834623257396</v>
+        <v>0.9639803186642402</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>241</v>
@@ -6315,19 +6315,19 @@
         <v>247744</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>237683</v>
+        <v>236509</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>257056</v>
+        <v>256579</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.907104964677098</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8702675284533202</v>
+        <v>0.8659693524632901</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9412005769610029</v>
+        <v>0.9394524173440113</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>484</v>
@@ -6336,19 +6336,19 @@
         <v>495440</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>479679</v>
+        <v>482200</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>506154</v>
+        <v>506884</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9239175231321727</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8945261596293447</v>
+        <v>0.8992284287565078</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9438986445801638</v>
+        <v>0.9452592759204104</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>8180</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3173</v>
+        <v>3162</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15666</v>
+        <v>16034</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01245829432490967</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004832400876955757</v>
+        <v>0.004815904200941793</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02386145619169559</v>
+        <v>0.02442085362807609</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -6461,19 +6461,19 @@
         <v>5757</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1856</v>
+        <v>1964</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12667</v>
+        <v>12879</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008328067625873063</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00268521065039175</v>
+        <v>0.002840490007938722</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01832427593696203</v>
+        <v>0.01863013880772705</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -6482,19 +6482,19 @@
         <v>13937</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7048</v>
+        <v>7217</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24040</v>
+        <v>23840</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01033996015852252</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005228845830992645</v>
+        <v>0.005354416088740202</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01783545891283818</v>
+        <v>0.01768722522094567</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>648378</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>640892</v>
+        <v>640524</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>653385</v>
+        <v>653396</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9875417056750904</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9761385438083043</v>
+        <v>0.9755791463719239</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9951675991230442</v>
+        <v>0.9951840957990582</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>641</v>
@@ -6532,19 +6532,19 @@
         <v>685537</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>678627</v>
+        <v>678415</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>689438</v>
+        <v>689330</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.991671932374127</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.981675724063037</v>
+        <v>0.981369861192273</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9973147893496082</v>
+        <v>0.9971595099920614</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1214</v>
@@ -6553,19 +6553,19 @@
         <v>1333915</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1323812</v>
+        <v>1324012</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1340804</v>
+        <v>1340635</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9896600398414774</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9821645410871618</v>
+        <v>0.9823127747790544</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9947711541690074</v>
+        <v>0.9946455839112598</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>18108</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10698</v>
+        <v>11218</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27130</v>
+        <v>28401</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02325745282582442</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01374078721164502</v>
+        <v>0.01440826607321048</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03484572424077585</v>
+        <v>0.03647738816701569</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -6678,19 +6678,19 @@
         <v>14678</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8407</v>
+        <v>8157</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24773</v>
+        <v>24796</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01776692899993127</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01017568034425576</v>
+        <v>0.009872812443505199</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0299859307240361</v>
+        <v>0.03001284031922339</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>31</v>
@@ -6699,19 +6699,19 @@
         <v>32786</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>23314</v>
+        <v>22724</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>46140</v>
+        <v>45205</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02043078847808149</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01452813696574135</v>
+        <v>0.01416029925554005</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02875202321207395</v>
+        <v>0.02816978684776771</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>760475</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>751453</v>
+        <v>750182</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>767885</v>
+        <v>767365</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9767425471741755</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.965154275759224</v>
+        <v>0.9635226118329837</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9862592127883549</v>
+        <v>0.9855917339267893</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>742</v>
@@ -6749,19 +6749,19 @@
         <v>811489</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>801394</v>
+        <v>801371</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>817760</v>
+        <v>818010</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9822330710000687</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.970014069275963</v>
+        <v>0.9699871596807762</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.989824319655744</v>
+        <v>0.9901271875564946</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1474</v>
@@ -6770,19 +6770,19 @@
         <v>1571964</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1558610</v>
+        <v>1559545</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1581436</v>
+        <v>1582026</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9795692115219186</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9712479767879261</v>
+        <v>0.9718302131522323</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9854718630342586</v>
+        <v>0.9858397007444599</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>89111</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>72014</v>
+        <v>72160</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>109583</v>
+        <v>109927</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02625275820042077</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02121575942934481</v>
+        <v>0.02125897502094919</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03228404875620152</v>
+        <v>0.03238523520950426</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>77</v>
@@ -6895,19 +6895,19 @@
         <v>87510</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>67544</v>
+        <v>69956</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>108903</v>
+        <v>108127</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02468857051486613</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01905587293413586</v>
+        <v>0.01973630382407751</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03072424131167454</v>
+        <v>0.03050520321670615</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>164</v>
@@ -6916,19 +6916,19 @@
         <v>176621</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>152147</v>
+        <v>151709</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>202730</v>
+        <v>205275</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02545373601180825</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02192673629698776</v>
+        <v>0.0218635767781966</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02921648724135961</v>
+        <v>0.02958326278415803</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3305239</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3284767</v>
+        <v>3284423</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3322336</v>
+        <v>3322190</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9737472417995793</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9677159512437985</v>
+        <v>0.9676147647904958</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9787842405706552</v>
+        <v>0.9787410249790508</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3261</v>
@@ -6966,19 +6966,19 @@
         <v>3457032</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3435639</v>
+        <v>3436415</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3476998</v>
+        <v>3474586</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9753114294851338</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9692757586883254</v>
+        <v>0.9694947967832936</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9809441270658641</v>
+        <v>0.9802636961759223</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6405</v>
@@ -6987,19 +6987,19 @@
         <v>6762271</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6736162</v>
+        <v>6733617</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6786745</v>
+        <v>6787183</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9745462639881918</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9707835127586403</v>
+        <v>0.970416737215842</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9780732637030122</v>
+        <v>0.9781364232218036</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>8711</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4552</v>
+        <v>5002</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15629</v>
+        <v>15660</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02731931302846818</v>
+        <v>0.02731931302846819</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01427515101544057</v>
+        <v>0.01568908245395936</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04901871475859639</v>
+        <v>0.04911388348930385</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -7356,19 +7356,19 @@
         <v>13265</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8718</v>
+        <v>9006</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19166</v>
+        <v>19267</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04196904326419674</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0275845584665685</v>
+        <v>0.02849530138494356</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06063999113913797</v>
+        <v>0.06096041806133295</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -7377,19 +7377,19 @@
         <v>21975</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15829</v>
+        <v>15459</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30846</v>
+        <v>30048</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03461205197164691</v>
+        <v>0.03461205197164689</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02493066735764754</v>
+        <v>0.02434856719500058</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04858394353551387</v>
+        <v>0.04732611171601668</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>310134</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>303216</v>
+        <v>303185</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>314293</v>
+        <v>313843</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9726806869715318</v>
+        <v>0.9726806869715319</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9509812852414036</v>
+        <v>0.950886116510696</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9857248489845596</v>
+        <v>0.9843109175460408</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>512</v>
@@ -7427,19 +7427,19 @@
         <v>302796</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>296895</v>
+        <v>296794</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>307343</v>
+        <v>307055</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9580309567358035</v>
+        <v>0.9580309567358033</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.939360008860862</v>
+        <v>0.9390395819386669</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9724154415334315</v>
+        <v>0.9715046986150565</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>832</v>
@@ -7448,19 +7448,19 @@
         <v>612931</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>604060</v>
+        <v>604858</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>619077</v>
+        <v>619447</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9653879480283531</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9514160564644862</v>
+        <v>0.9526738882839833</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9750693326423525</v>
+        <v>0.9756514328049993</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>11880</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4906</v>
+        <v>5317</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22404</v>
+        <v>25114</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02238706968739001</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009246080424064804</v>
+        <v>0.01002019083799682</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04222048645360937</v>
+        <v>0.04732672783054067</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -7573,19 +7573,19 @@
         <v>16586</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10574</v>
+        <v>10992</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25236</v>
+        <v>24349</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03035033103764007</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01934791204711481</v>
+        <v>0.02011284676547367</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04617888312875269</v>
+        <v>0.04455520080062219</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -7594,19 +7594,19 @@
         <v>28466</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19641</v>
+        <v>19674</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41906</v>
+        <v>41976</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02642727972649055</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01823424976223611</v>
+        <v>0.01826508256596319</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03890504671970617</v>
+        <v>0.03896948143901011</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>518767</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>508243</v>
+        <v>505533</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>525741</v>
+        <v>525330</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.97761293031261</v>
+        <v>0.9776129303126099</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9577795135463909</v>
+        <v>0.9526732721694586</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9907539195759353</v>
+        <v>0.989979809162003</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>693</v>
@@ -7644,19 +7644,19 @@
         <v>529908</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>521258</v>
+        <v>522145</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>535920</v>
+        <v>535502</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9696496689623597</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9538211168712476</v>
+        <v>0.9554447991993775</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9806520879528854</v>
+        <v>0.9798871532345264</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1067</v>
@@ -7665,19 +7665,19 @@
         <v>1048675</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1035235</v>
+        <v>1035165</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1057500</v>
+        <v>1057467</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9735727202735095</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9610949532802939</v>
+        <v>0.9610305185609896</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9817657502377639</v>
+        <v>0.9817349174340364</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>6906</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2998</v>
+        <v>3099</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13832</v>
+        <v>13842</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02185363383285428</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009488766005470967</v>
+        <v>0.009808592115752881</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04377342348573252</v>
+        <v>0.04380628807151647</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -7790,19 +7790,19 @@
         <v>9071</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5034</v>
+        <v>5492</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14061</v>
+        <v>14332</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02545445947880512</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01412654487025897</v>
+        <v>0.0154102412290345</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03945377696960044</v>
+        <v>0.04021491923741518</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -7811,19 +7811,19 @@
         <v>15977</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10361</v>
+        <v>10173</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23769</v>
+        <v>24715</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02376219306152878</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01540957835931319</v>
+        <v>0.01513038829038175</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03535121414286995</v>
+        <v>0.03675714695859372</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>309087</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>302161</v>
+        <v>302151</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>312995</v>
+        <v>312894</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9781463661671457</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9562265765142676</v>
+        <v>0.9561937119284835</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9905112339945291</v>
+        <v>0.9901914078842471</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>520</v>
@@ -7861,19 +7861,19 @@
         <v>347310</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>342320</v>
+        <v>342049</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>351347</v>
+        <v>350889</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9745455405211949</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9605462230303997</v>
+        <v>0.9597850807625845</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.985873455129741</v>
+        <v>0.9845897587709653</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>872</v>
@@ -7882,19 +7882,19 @@
         <v>656398</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>648606</v>
+        <v>647660</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>662014</v>
+        <v>662202</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9762378069384714</v>
+        <v>0.9762378069384712</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9646487858571301</v>
+        <v>0.9632428530414064</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9845904216406867</v>
+        <v>0.9848696117096183</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>10252</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3613</v>
+        <v>3389</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27337</v>
+        <v>27589</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0274740389540167</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009681924906628061</v>
+        <v>0.009081012158147871</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07326091851332309</v>
+        <v>0.07393606070650818</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -8007,19 +8007,19 @@
         <v>7329</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2837</v>
+        <v>2689</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20486</v>
+        <v>25111</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01736899763717251</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006722821588259591</v>
+        <v>0.006372155687831829</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04855051321248424</v>
+        <v>0.05951065130174557</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -8028,19 +8028,19 @@
         <v>17581</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8205</v>
+        <v>8669</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35541</v>
+        <v>38370</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02211131491712317</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01031933845704714</v>
+        <v>0.01090274970691316</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04469944389611105</v>
+        <v>0.04825752552585894</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>362893</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>345808</v>
+        <v>345556</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369532</v>
+        <v>369756</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9725259610459833</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9267390814866772</v>
+        <v>0.9260639392934916</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.990318075093372</v>
+        <v>0.9909189878418521</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>591</v>
@@ -8078,19 +8078,19 @@
         <v>414632</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>401475</v>
+        <v>396850</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>419124</v>
+        <v>419272</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9826310023628274</v>
+        <v>0.9826310023628277</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9514494867875157</v>
+        <v>0.9404893486982533</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9932771784117403</v>
+        <v>0.993627844312168</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>878</v>
@@ -8099,19 +8099,19 @@
         <v>777526</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>759566</v>
+        <v>756737</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>786902</v>
+        <v>786438</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.977888685082877</v>
+        <v>0.9778886850828769</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.955300556103889</v>
+        <v>0.951742474474141</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9896806615429529</v>
+        <v>0.9890972502930869</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>2428</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6975</v>
+        <v>7215</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01180433853993764</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002557149233241706</v>
+        <v>0.002581818203284372</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0339145110614378</v>
+        <v>0.03508314021955288</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -8227,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2715</v>
+        <v>2446</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.002312405980937437</v>
+        <v>0.002312405980937436</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01194908697080649</v>
+        <v>0.01076403231865755</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -8245,19 +8245,19 @@
         <v>2953</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>894</v>
+        <v>546</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7170</v>
+        <v>7410</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006822104474743653</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002065321168205997</v>
+        <v>0.001260545750181427</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01656357584347812</v>
+        <v>0.01711845405363812</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>203237</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198690</v>
+        <v>198450</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>205139</v>
+        <v>205134</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9881956614600623</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9660854889385624</v>
+        <v>0.9649168597804476</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9974428507667583</v>
+        <v>0.9974181817967156</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>491</v>
@@ -8295,16 +8295,16 @@
         <v>226690</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>224500</v>
+        <v>224769</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>227215</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9976875940190627</v>
+        <v>0.9976875940190625</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9880509130291942</v>
+        <v>0.9892359676813426</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -8316,19 +8316,19 @@
         <v>429926</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>425709</v>
+        <v>425469</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>431985</v>
+        <v>432333</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9931778955252565</v>
+        <v>0.9931778955252564</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9834364241565219</v>
+        <v>0.9828815459463619</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9979346788317941</v>
+        <v>0.9987394542498187</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>9163</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5413</v>
+        <v>5485</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14845</v>
+        <v>15847</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03384685840595096</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01999414891343816</v>
+        <v>0.02026148408720503</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05483690395311281</v>
+        <v>0.0585386453582646</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -8441,19 +8441,19 @@
         <v>14006</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9974</v>
+        <v>9478</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20982</v>
+        <v>20638</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05310502689227121</v>
+        <v>0.05310502689227119</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03781570878310326</v>
+        <v>0.03593377266989844</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0795532715085355</v>
+        <v>0.07824714078345162</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -8462,19 +8462,19 @@
         <v>23169</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17148</v>
+        <v>17075</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31970</v>
+        <v>31603</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04335060703816317</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03208508870303235</v>
+        <v>0.03194849809243026</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05981759480317519</v>
+        <v>0.05913147640264237</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>261544</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>255862</v>
+        <v>254860</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265294</v>
+        <v>265222</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.966153141594049</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9451630960468872</v>
+        <v>0.9414613546417359</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9800058510865618</v>
+        <v>0.9797385159127951</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>427</v>
@@ -8512,19 +8512,19 @@
         <v>249744</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>242768</v>
+        <v>243112</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>253776</v>
+        <v>254272</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9468949731077289</v>
+        <v>0.9468949731077285</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9204467284914646</v>
+        <v>0.9217528592165474</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9621842912168969</v>
+        <v>0.9640662273301015</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>781</v>
@@ -8533,19 +8533,19 @@
         <v>511288</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>502487</v>
+        <v>502854</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>517309</v>
+        <v>517382</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9566493929618367</v>
+        <v>0.9566493929618368</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9401824051968248</v>
+        <v>0.9408685235973576</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9679149112969678</v>
+        <v>0.9680515019075696</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>15960</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9108</v>
+        <v>9479</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25809</v>
+        <v>27392</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02217681130102568</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01265527705942849</v>
+        <v>0.01317051337196282</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03586177302053609</v>
+        <v>0.03806089122171057</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -8658,19 +8658,19 @@
         <v>23281</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15999</v>
+        <v>16134</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33757</v>
+        <v>33700</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03015467856500635</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02072219899620662</v>
+        <v>0.02089790430007022</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04372378820135917</v>
+        <v>0.04364962789700817</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>45</v>
@@ -8679,19 +8679,19 @@
         <v>39241</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28547</v>
+        <v>28742</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>53511</v>
+        <v>53849</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02630578194975092</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01913669750199597</v>
+        <v>0.01926718662483815</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03587116756974955</v>
+        <v>0.0360980645343988</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>703727</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>693878</v>
+        <v>692295</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>710579</v>
+        <v>710208</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9778231886989742</v>
+        <v>0.9778231886989746</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9641382269794641</v>
+        <v>0.9619391087782895</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9873447229405716</v>
+        <v>0.9868294866280374</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>929</v>
@@ -8729,19 +8729,19 @@
         <v>748776</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>738300</v>
+        <v>738357</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>756058</v>
+        <v>755923</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9698453214349935</v>
+        <v>0.9698453214349936</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9562762117986409</v>
+        <v>0.9563503721029917</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9792778010037935</v>
+        <v>0.9791020956999299</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1514</v>
@@ -8750,19 +8750,19 @@
         <v>1452503</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1438233</v>
+        <v>1437895</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1463197</v>
+        <v>1463002</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9736942180502491</v>
+        <v>0.9736942180502492</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9641288324302506</v>
+        <v>0.9639019354656014</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9808633024980042</v>
+        <v>0.9807328133751617</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>17045</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9031</v>
+        <v>8555</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28242</v>
+        <v>28445</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02135716997381894</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01131653996168496</v>
+        <v>0.01071915329717019</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03538826607111176</v>
+        <v>0.03564165754918704</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -8875,19 +8875,19 @@
         <v>15374</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9171</v>
+        <v>8659</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24333</v>
+        <v>23657</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01849284603513063</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01103210686644367</v>
+        <v>0.01041633354008177</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02927030494216377</v>
+        <v>0.02845662437062932</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>32</v>
@@ -8896,19 +8896,19 @@
         <v>32418</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22533</v>
+        <v>22635</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>48600</v>
+        <v>46691</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.01989577456276881</v>
+        <v>0.01989577456276882</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01382875735982395</v>
+        <v>0.01389178479985653</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02982687961675844</v>
+        <v>0.02865552907383813</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>781027</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>769830</v>
+        <v>769627</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>789041</v>
+        <v>789517</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.978642830026181</v>
+        <v>0.9786428300261809</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9646117339288884</v>
+        <v>0.9643583424508126</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9886834600383146</v>
+        <v>0.9892808467028297</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1043</v>
@@ -8946,19 +8946,19 @@
         <v>815957</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>806998</v>
+        <v>807674</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>822160</v>
+        <v>822672</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9815071539648694</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9707296950578362</v>
+        <v>0.9715433756293707</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9889678931335562</v>
+        <v>0.9895836664599184</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1792</v>
@@ -8967,19 +8967,19 @@
         <v>1596985</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1580803</v>
+        <v>1582712</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1606870</v>
+        <v>1606768</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9801042254372312</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9701731203832417</v>
+        <v>0.9713444709261619</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.986171242640176</v>
+        <v>0.9861082152001432</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>82343</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>61604</v>
+        <v>65035</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>104810</v>
+        <v>105087</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02330837049640188</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01743797422362117</v>
+        <v>0.01840898725901255</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0296679988034881</v>
+        <v>0.02974649709758256</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>158</v>
@@ -9092,19 +9092,19 @@
         <v>99438</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>83136</v>
+        <v>84954</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>117843</v>
+        <v>120610</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02662157956320406</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0222571242350309</v>
+        <v>0.02274386829547191</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03154894734999247</v>
+        <v>0.032289632170013</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>237</v>
@@ -9113,19 +9113,19 @@
         <v>181781</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>155572</v>
+        <v>156569</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>209070</v>
+        <v>211017</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02501112860550918</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02140497594285365</v>
+        <v>0.02154216975164238</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02876579193397492</v>
+        <v>0.02903366475764415</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3450419</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3427952</v>
+        <v>3427675</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3471158</v>
+        <v>3467727</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9766916295035981</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9703320011965118</v>
+        <v>0.9702535029024173</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9825620257763785</v>
+        <v>0.9815910127409874</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5206</v>
@@ -9163,19 +9163,19 @@
         <v>3635813</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3617408</v>
+        <v>3614641</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3652115</v>
+        <v>3650297</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.973378420436796</v>
+        <v>0.9733784204367959</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9684510526500077</v>
+        <v>0.9677103678299867</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9777428757649695</v>
+        <v>0.9772561317045279</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8503</v>
@@ -9184,19 +9184,19 @@
         <v>7086232</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7058943</v>
+        <v>7056996</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7112441</v>
+        <v>7111444</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9749888713944908</v>
+        <v>0.974988871394491</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.971234208066025</v>
+        <v>0.9709663352423558</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9785950240571465</v>
+        <v>0.9784578302483575</v>
       </c>
     </row>
     <row r="30">
